--- a/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.84</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.26</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.84</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.26</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.25</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.44</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.25</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5477</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1376,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.57</v>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1482,14 +1547,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.27</v>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1498,14 +1585,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -1514,13 +1723,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1707,14 +1794,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -1723,14 +1932,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -1739,13 +1948,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0529</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008871</t>
+          <t>010539</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成睿裕六个月持有期股票A</t>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>39.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0688</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -678,36 +694,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008872</t>
+          <t>010540</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成睿裕六个月持有期股票C</t>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>39.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +834,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -772,36 +864,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010929</t>
+          <t>008871</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成核心价值甄选混合A</t>
+          <t>大成睿裕六个月持有期股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.54</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40.92</t>
+          <t>92.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1798</t>
+          <t>0.0516</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -810,36 +902,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008871</t>
+          <t>011179</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成睿裕六个月持有期股票A</t>
+          <t>浙商智选食品饮料股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0573</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -848,36 +940,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010930</t>
+          <t>011180</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成核心价值甄选混合C</t>
+          <t>浙商智选食品饮料股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40.92</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -886,112 +978,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011179</t>
+          <t>008872</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商智选食品饮料股票A</t>
+          <t>大成睿裕六个月持有期股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.15</t>
+          <t>92.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011180</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浙商智选食品饮料股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1042,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1066,26 +1082,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>85.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0508</t>
+          <t>0.5477</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1104,26 +1120,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1142,26 +1158,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1180,26 +1196,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>85.29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1250,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1274,26 +1290,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.29</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>7.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5477</t>
+          <t>0.0508</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1312,26 +1328,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.09</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1350,26 +1366,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.09</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1388,26 +1404,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.29</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>7.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +1437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,7 +1458,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1472,36 +1488,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008871</t>
+          <t>010929</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成睿裕六个月持有期股票A</t>
+          <t>大成核心价值甄选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>28.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>40.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.1798</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1510,36 +1526,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011179</t>
+          <t>008871</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商智选食品饮料股票A</t>
+          <t>大成睿裕六个月持有期股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0573</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1548,36 +1564,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011180</t>
+          <t>010930</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商智选食品饮料股票C</t>
+          <t>大成核心价值甄选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>40.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1586,36 +1602,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>008872</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>大成睿裕六个月持有期股票C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1629,7 +1721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1650,7 +1742,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1680,36 +1772,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010539</t>
+          <t>008871</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+          <t>大成睿裕六个月持有期股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39.22</t>
+          <t>89.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.0688</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1718,112 +1810,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010540</t>
+          <t>008872</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+          <t>大成睿裕六个月持有期股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>39.22</t>
+          <t>89.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0346</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011179</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙商智选食品饮料股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011180</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商智选食品饮料股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1837,144 +1853,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.06</v>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.57</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010539</t>
+          <t>010540</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+          <t>浙商智多金稳健一年持有期混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39.22</t>
+          <t>38.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010540</t>
+          <t>010539</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+          <t>浙商智多金稳健一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>39.22</t>
+          <t>38.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0346</t>
+          <t>0.0214</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0198</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -780,17 +797,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -799,7 +816,83 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -864,36 +957,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008871</t>
+          <t>010539</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成睿裕六个月持有期股票A</t>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>39.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -902,36 +995,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011179</t>
+          <t>010540</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商智选食品饮料股票A</t>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>39.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -940,36 +1033,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011180</t>
+          <t>011179</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商智选食品饮料股票C</t>
+          <t>浙商智选食品饮料股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0198</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -978,36 +1071,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008872</t>
+          <t>011180</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成睿裕六个月持有期股票C</t>
+          <t>浙商智选食品饮料股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1082,26 +1175,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.29</t>
+          <t>92.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5477</t>
+          <t>0.0516</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1120,26 +1213,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.09</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1158,26 +1251,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.09</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1196,26 +1289,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.29</t>
+          <t>92.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1343,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1290,26 +1383,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>85.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0508</t>
+          <t>0.5477</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1328,26 +1421,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1366,26 +1459,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1404,26 +1497,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>85.29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1432,6 +1525,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1715,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1847,7 +2148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002749-国光股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.57</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -616,7 +633,271 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -893,214 +1174,6 @@
       </c>
       <c r="H7" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010539</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>39.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0351</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010540</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>39.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011179</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙商智选食品饮料股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011180</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商智选食品饮料股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1165,36 +1238,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008871</t>
+          <t>010539</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成睿裕六个月持有期股票A</t>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>39.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1203,36 +1276,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011179</t>
+          <t>010540</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商智选食品饮料股票A</t>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>39.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1241,36 +1314,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011180</t>
+          <t>011179</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商智选食品饮料股票C</t>
+          <t>浙商智选食品饮料股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0198</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1279,36 +1352,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008872</t>
+          <t>011180</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成睿裕六个月持有期股票C</t>
+          <t>浙商智选食品饮料股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1383,26 +1456,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.29</t>
+          <t>92.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5477</t>
+          <t>0.0516</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1421,26 +1494,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.09</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1459,26 +1532,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.09</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1497,26 +1570,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.29</t>
+          <t>92.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1551,7 +1624,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1591,26 +1664,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>85.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0508</t>
+          <t>0.5477</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1629,26 +1702,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1667,26 +1740,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1705,26 +1778,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>85.29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1733,6 +1806,214 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2016,7 +2297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2146,136 +2427,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0529</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>